--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS-1 Drive\OneDrive\Desktop\Bootcamp\Back End - Java\Eclipse WorkSpace\Automation WS\com.hrm.mshark\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\eclipse\workspace\com.mshark.hrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FE2490-A148-4BEC-B7A6-D8CCC59C6390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9DCF7-091C-4B26-A689-E6BB326F3042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12810" windowHeight="2715" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_DATA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -634,12 +634,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -648,13 +647,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,65 +982,65 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
@@ -1062,173 +1058,172 @@
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>8</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="13">
         <v>9</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="13">
         <v>10</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="13">
         <v>11</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>12</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="13">
         <v>13</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="13">
         <v>14</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="13">
         <v>15</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="13">
         <v>16</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="13">
         <v>17</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="13">
         <v>18</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="13">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="20"/>
+      <c r="M2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1238,31 +1233,30 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1272,31 +1266,30 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1306,31 +1299,30 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1340,31 +1332,30 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1374,31 +1365,30 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1408,31 +1398,30 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1448,21 +1437,20 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1478,21 +1466,20 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1508,21 +1495,20 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1538,21 +1524,20 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1568,44 +1553,40 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R15" s="2"/>
-      <c r="S15" s="12" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R16" s="2"/>
-      <c r="S16" s="12" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="18:20" x14ac:dyDescent="0.25">
-      <c r="R17" s="2"/>
-      <c r="S17" s="12" t="s">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1635,57 +1616,57 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1702,13 +1683,13 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1725,355 +1706,355 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" customWidth="1"/>
+    <col min="16" max="16" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>8</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="13">
         <v>9</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="13">
         <v>10</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="13">
         <v>11</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="13">
         <v>12</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="13">
         <v>13</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="13">
         <v>14</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="13">
         <v>15</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="13">
         <v>16</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="13">
         <v>17</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="13">
         <v>18</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="13">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="20"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="20"/>
+      <c r="S2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="22"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="T2" s="20"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2086,20 +2067,20 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2112,20 +2093,20 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2138,20 +2119,20 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="S12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2164,20 +2145,20 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="S13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2190,40 +2171,40 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="S14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S15" s="12" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S16" s="12" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S17" s="12" t="s">
+    <row r="17" spans="19:20" x14ac:dyDescent="0.3">
+      <c r="S17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2250,257 +2231,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59445FA-D47E-4AE5-A81C-96D77967CB8C}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="17">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>8</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="12" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="12" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="12" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="12" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="12" t="s">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2522,230 +2476,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319E917-46E2-49CF-B020-F41775F9105F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="7">
+        <v>333333</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="G6" s="12" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-      <c r="G7" s="12" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
-      <c r="G8" s="12" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
-      <c r="G9" s="12" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2"/>
-      <c r="G10" s="12" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="12" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="G14" s="12" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="12" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="G16" s="12" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="12" t="s">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2771,254 +2710,239 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>8</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="13">
         <v>9</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" s="2"/>
-      <c r="J7" s="12" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I8" s="2"/>
-      <c r="J8" s="12" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" s="2"/>
-      <c r="J9" s="12" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="2"/>
-      <c r="J10" s="12" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="2"/>
-      <c r="J11" s="12" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="2"/>
-      <c r="J12" s="12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="2"/>
-      <c r="J13" s="12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I14" s="2"/>
-      <c r="J14" s="12" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="2"/>
-      <c r="J15" s="12" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="2"/>
-      <c r="J16" s="12" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I17" s="2"/>
-      <c r="J17" s="12" t="s">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3039,491 +2963,467 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D472DAD3-E615-4D2E-88C5-D9E53332051C}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="13">
         <v>8</v>
       </c>
-      <c r="J1" s="19">
+      <c r="J1" s="17">
         <v>9</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="13">
         <v>10</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="17">
         <v>11</v>
       </c>
-      <c r="M1" s="19">
+      <c r="M1" s="17">
         <v>12</v>
       </c>
-      <c r="N1" s="19">
+      <c r="N1" s="17">
         <v>13</v>
       </c>
-      <c r="O1" s="19">
+      <c r="O1" s="17">
         <v>14</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="13">
         <v>15</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="13">
         <v>16</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="20" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="22" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="22"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="14"/>
+      <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="16"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+      <c r="N4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="12" t="s">
+      <c r="C5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="12" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="Q5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="12" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="Q6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="12" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="12" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="Q7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="12" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="12" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="Q8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="12" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="12" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="Q9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="12" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="12" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="Q10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="12" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="12" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="Q11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="12" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="Q12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G13" s="12" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G14" s="12" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P15" s="2"/>
-      <c r="Q15" s="12" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="P16" s="2"/>
-      <c r="Q16" s="12" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="P17" s="2"/>
-      <c r="Q17" s="12" t="s">
+    <row r="17" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3551,92 +3451,83 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="13">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="13">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="12"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>128</v>
       </c>
       <c r="I3" s="1"/>
@@ -3644,23 +3535,21 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="I4" s="1"/>
@@ -3668,21 +3557,17 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I5" s="1"/>
@@ -3692,21 +3577,17 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="1"/>
@@ -3716,21 +3597,17 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="1"/>
@@ -3740,21 +3617,17 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="1"/>
@@ -3764,21 +3637,20 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>131</v>
       </c>
       <c r="I9" s="1"/>
@@ -3788,17 +3660,16 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>132</v>
       </c>
       <c r="I10" s="1"/>
@@ -3808,17 +3679,16 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>133</v>
       </c>
       <c r="I11" s="1"/>
@@ -3828,17 +3698,16 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>131</v>
       </c>
       <c r="I12" s="1"/>
@@ -3848,17 +3717,16 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>132</v>
       </c>
       <c r="I13" s="1"/>
@@ -3868,17 +3736,16 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>133</v>
       </c>
       <c r="I14" s="1"/>
@@ -3888,30 +3755,27 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="12" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G15" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="2"/>
-      <c r="G16" s="12" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="12" t="s">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>133</v>
       </c>
     </row>

--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\eclipse\workspace\com.mshark.hrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A9DCF7-091C-4B26-A689-E6BB326F3042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75111C2-0C62-44BC-9B2C-AA0A6EE05C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>Update Employee</t>
+  </si>
+  <si>
+    <t>333333</t>
+  </si>
+  <si>
+    <t>Rohith</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2483,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2544,8 +2550,8 @@
       <c r="D3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7">
-        <v>333333</v>
+      <c r="E3" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>122</v>
@@ -2566,7 +2572,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>123</v>

--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\eclipse\workspace\com.mshark.hrm\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75111C2-0C62-44BC-9B2C-AA0A6EE05C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD644C48-E095-461B-B518-A9EC8CBE5D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_DATA" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="TC_01" sheetId="3" r:id="rId4"/>
     <sheet name="TC_02" sheetId="12" r:id="rId5"/>
     <sheet name="TC_09" sheetId="7" r:id="rId6"/>
-    <sheet name="TC_24" sheetId="8" r:id="rId7"/>
-    <sheet name="TC_31" sheetId="10" r:id="rId8"/>
-    <sheet name="TC_34" sheetId="9" r:id="rId9"/>
-    <sheet name="TC_54" sheetId="6" r:id="rId10"/>
+    <sheet name="ExcelDataHashMap" sheetId="13" r:id="rId7"/>
+    <sheet name="TC_24" sheetId="8" r:id="rId8"/>
+    <sheet name="TC_31" sheetId="10" r:id="rId9"/>
+    <sheet name="TC_34" sheetId="9" r:id="rId10"/>
+    <sheet name="TC_54" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -470,6 +471,27 @@
   </si>
   <si>
     <t>Rohith</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>Hemanth</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>contactnumber</t>
   </si>
 </sst>
 </file>
@@ -1057,6 +1079,356 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C5D0BB-16AE-42F6-9C96-46D556418FFB}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="D2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G15" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{8D1EAA3B-4B61-4804-BBDD-65A1AD19D9F8}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{19796368-1158-488A-935D-E222BFD4E87B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B6C0F-6DAA-48F8-8DA5-642BD55C431A}">
   <dimension ref="A1:T17"/>
   <sheetViews>
@@ -2482,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319E917-46E2-49CF-B020-F41775F9105F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2709,6 +3081,56 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6D1600-E507-4D0E-874F-8728DD550821}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
+        <v>9876543210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5EEB17-79CF-4494-BA99-DF2BA2388EA6}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -2967,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D472DAD3-E615-4D2E-88C5-D9E53332051C}">
   <dimension ref="A1:R17"/>
   <sheetViews>
@@ -3447,354 +3869,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C5D0BB-16AE-42F6-9C96-46D556418FFB}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13">
-        <v>3</v>
-      </c>
-      <c r="E1" s="13">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="D2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G15" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G16" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{8D1EAA3B-4B61-4804-BBDD-65A1AD19D9F8}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{19796368-1158-488A-935D-E222BFD4E87B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>